--- a/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area1_Tr_J.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area1_Tr_J.xlsx
@@ -373,18 +373,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area1_Tr_J.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area1_Tr_J.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>184</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>114</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area1_Tr_J.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area1_Tr_J.xlsx
@@ -373,18 +373,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
